--- a/results/mp/tinybert/corona/confidence/210/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,33 +46,33 @@
     <t>crude</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>shame</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -82,13 +82,19 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>fight</t>
   </si>
   <si>
     <t>stop</t>
@@ -103,24 +109,27 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
@@ -136,33 +145,39 @@
     <t>positive</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>important</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
@@ -172,34 +187,58 @@
     <t>like</t>
   </si>
   <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>key</t>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>give</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>give</t>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>shopping</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -557,7 +596,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -647,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -697,16 +736,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K4">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +765,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8974358974358975</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C5">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,16 +786,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>0.9661016949152542</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="M5">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,31 +815,31 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.868421052631579</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6">
-        <v>33</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="K6">
-        <v>0.9574468085106383</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L6">
         <v>45</v>
@@ -818,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -826,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8648648648648649</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,16 +886,16 @@
         <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L7">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="M7">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -897,16 +936,16 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>0.9017857142857143</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L8">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="M8">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +965,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8611111111111112</v>
+        <v>0.8424657534246576</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>246</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.8943661971830986</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="L9">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M9">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +1015,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8458904109589042</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C10">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>247</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +1033,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.8833333333333333</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L10">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="M10">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,13 +1065,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7435897435897436</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1083,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.8828125</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L11">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M11">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1115,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6944444444444444</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.8780487804878049</v>
+        <v>0.8828125</v>
       </c>
       <c r="L12">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1157,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,7 +1165,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6756756756756757</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C13">
         <v>25</v>
@@ -1144,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.8627450980392157</v>
+        <v>0.8780487804878049</v>
       </c>
       <c r="L13">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="M13">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1207,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1215,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5562015503875969</v>
+        <v>0.5910852713178295</v>
       </c>
       <c r="C14">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="D14">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,19 +1233,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.8448275862068966</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,13 +1265,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5234899328859061</v>
+        <v>0.5503355704697986</v>
       </c>
       <c r="C15">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D15">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1244,19 +1283,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>0.84</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1315,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4933333333333333</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="C16">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D16">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1294,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>0.839622641509434</v>
@@ -1326,13 +1365,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.417989417989418</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C17">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D17">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1344,19 +1383,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>110</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>0.8125</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L17">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>130</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1368,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1376,13 +1415,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3766233766233766</v>
+        <v>0.4155844155844156</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1394,19 +1433,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>0.804177545691906</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L18">
-        <v>308</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>308</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1418,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1426,13 +1465,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3111111111111111</v>
+        <v>0.4</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1444,19 +1483,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.7936507936507936</v>
+        <v>0.8125</v>
       </c>
       <c r="L19">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="M19">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1468,7 +1507,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1476,13 +1515,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2341269841269841</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="C20">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D20">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1494,31 +1533,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>193</v>
+        <v>120</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.776595744680851</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L20">
+        <v>310</v>
+      </c>
+      <c r="M20">
+        <v>310</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
         <v>73</v>
-      </c>
-      <c r="M20">
-        <v>73</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1526,13 +1565,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.09651474530831099</v>
+        <v>0.325</v>
       </c>
       <c r="C21">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D21">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1544,46 +1583,70 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>337</v>
+        <v>54</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>0.7647058823529411</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L21">
+        <v>50</v>
+      </c>
+      <c r="M21">
+        <v>50</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.246031746031746</v>
+      </c>
+      <c r="C22">
+        <v>62</v>
+      </c>
+      <c r="D22">
+        <v>62</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>190</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22">
+        <v>0.7878787878787878</v>
+      </c>
+      <c r="L22">
         <v>26</v>
       </c>
-      <c r="M21">
+      <c r="M22">
         <v>26</v>
       </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="L22">
-        <v>35</v>
-      </c>
-      <c r="M22">
-        <v>35</v>
-      </c>
       <c r="N22">
         <v>1</v>
       </c>
@@ -1594,21 +1657,45 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.128686327077748</v>
+      </c>
+      <c r="C23">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>48</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>325</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23">
-        <v>0.7222222222222222</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L23">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="M23">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1620,21 +1707,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>0.7186440677966102</v>
+        <v>0.76</v>
       </c>
       <c r="L24">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>212</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1646,21 +1733,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>0.6976744186046512</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1672,21 +1759,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K26">
-        <v>0.6882352941176471</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L26">
-        <v>234</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>234</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1698,21 +1785,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>106</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K27">
-        <v>0.6741573033707865</v>
+        <v>0.7254237288135593</v>
       </c>
       <c r="L27">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="M27">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1724,15 +1811,15 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K28">
-        <v>0.6666666666666666</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L28">
         <v>30</v>
@@ -1750,21 +1837,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K29">
-        <v>0.6485355648535565</v>
+        <v>0.6882352941176471</v>
       </c>
       <c r="L29">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="M29">
-        <v>155</v>
+        <v>234</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1776,21 +1863,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>84</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K30">
-        <v>0.5957446808510638</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L30">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="M30">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1802,21 +1889,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K31">
-        <v>0.5857142857142857</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L31">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1828,21 +1915,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>29</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K32">
-        <v>0.5846153846153846</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1854,21 +1941,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K33">
-        <v>0.5753424657534246</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1880,21 +1967,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K34">
-        <v>0.5409836065573771</v>
+        <v>0.625</v>
       </c>
       <c r="L34">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1906,21 +1993,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K35">
-        <v>0.5384615384615384</v>
+        <v>0.6065573770491803</v>
       </c>
       <c r="L35">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1932,33 +2019,319 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36">
+        <v>0.5857142857142857</v>
+      </c>
+      <c r="L36">
+        <v>41</v>
+      </c>
+      <c r="M36">
+        <v>41</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37">
+        <v>0.5753424657534246</v>
+      </c>
+      <c r="L37">
+        <v>42</v>
+      </c>
+      <c r="M37">
+        <v>42</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K38">
+        <v>0.5625</v>
+      </c>
+      <c r="L38">
+        <v>36</v>
+      </c>
+      <c r="M38">
+        <v>36</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39">
+        <v>0.5256410256410257</v>
+      </c>
+      <c r="L39">
+        <v>41</v>
+      </c>
+      <c r="M39">
+        <v>41</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K40">
+        <v>0.1937799043062201</v>
+      </c>
+      <c r="L40">
+        <v>81</v>
+      </c>
+      <c r="M40">
+        <v>81</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K41">
+        <v>0.1355140186915888</v>
+      </c>
+      <c r="L41">
+        <v>29</v>
+      </c>
+      <c r="M41">
+        <v>30</v>
+      </c>
+      <c r="N41">
+        <v>0.97</v>
+      </c>
+      <c r="O41">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K42">
+        <v>0.1322115384615385</v>
+      </c>
+      <c r="L42">
+        <v>55</v>
+      </c>
+      <c r="M42">
+        <v>55</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K43">
+        <v>0.1209302325581395</v>
+      </c>
+      <c r="L43">
+        <v>26</v>
+      </c>
+      <c r="M43">
+        <v>26</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44">
+        <v>0.06823266219239374</v>
+      </c>
+      <c r="L44">
         <v>61</v>
       </c>
-      <c r="K36">
-        <v>0.09375</v>
-      </c>
-      <c r="L36">
-        <v>39</v>
-      </c>
-      <c r="M36">
-        <v>39</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>377</v>
+      <c r="M44">
+        <v>61</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K45">
+        <v>0.04772475027746948</v>
+      </c>
+      <c r="L45">
+        <v>43</v>
+      </c>
+      <c r="M45">
+        <v>43</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46">
+        <v>0.01728971962616822</v>
+      </c>
+      <c r="L46">
+        <v>37</v>
+      </c>
+      <c r="M46">
+        <v>40</v>
+      </c>
+      <c r="N46">
+        <v>0.93</v>
+      </c>
+      <c r="O46">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K47">
+        <v>0.008370895041854474</v>
+      </c>
+      <c r="L47">
+        <v>26</v>
+      </c>
+      <c r="M47">
+        <v>27</v>
+      </c>
+      <c r="N47">
+        <v>0.96</v>
+      </c>
+      <c r="O47">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>3080</v>
       </c>
     </row>
   </sheetData>
